--- a/html/resources/ioaConditions/train1P1Block10.xlsx
+++ b/html/resources/ioaConditions/train1P1Block10.xlsx
@@ -22,13 +22,13 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti1.wav</t>
+    <t>trainingaudio/01_kitipi1.wav</t>
   </si>
   <si>
     <t>trainingaudio/21_papika2.wav</t>
   </si>
   <si>
-    <t>pngimages/04_ladder.png</t>
+    <t>pngimages/01_gift.png</t>
   </si>
   <si>
     <t>pngimages/21_cheese.png</t>

--- a/html/resources/ioaConditions/train1P1Block10.xlsx
+++ b/html/resources/ioaConditions/train1P1Block10.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika2.wav</t>
+    <t>trainingaudio/01_kitipi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika2.mp3</t>
   </si>
   <si>
     <t>pngimages/01_gift.png</t>

--- a/html/resources/ioaConditions/train1P1Block10.xlsx
+++ b/html/resources/ioaConditions/train1P1Block10.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/01_kitipi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika2.mp3</t>
+    <t>trainingaudio/01_kitipi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika2.ogg</t>
   </si>
   <si>
     <t>pngimages/01_gift.png</t>

--- a/html/resources/ioaConditions/train1P1Block10.xlsx
+++ b/html/resources/ioaConditions/train1P1Block10.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/01_kitipi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika2.ogg</t>
+    <t>trainingaudio/01_kitipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika2.wav</t>
   </si>
   <si>
     <t>pngimages/01_gift.png</t>
